--- a/ThesisData/output/stoxx_announcements_stat.xlsx
+++ b/ThesisData/output/stoxx_announcements_stat.xlsx
@@ -465,13 +465,13 @@
         <v>167</v>
       </c>
       <c r="D2">
-        <v>0.1561387602445423</v>
+        <v>0.2721054403052363</v>
       </c>
       <c r="E2">
-        <v>0.08490205127663859</v>
+        <v>0.1822636234298907</v>
       </c>
       <c r="F2">
-        <v>0.5041506292765447</v>
+        <v>0.5701945524636198</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -485,13 +485,13 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>0.03112174271077748</v>
+        <v>0.1617308726398281</v>
       </c>
       <c r="E3">
-        <v>-0.01143862567790653</v>
+        <v>0.0570192971851197</v>
       </c>
       <c r="F3">
-        <v>0.006196229461791629</v>
+        <v>0.201287072166826</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -505,13 +505,13 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>0.09777022782412388</v>
+        <v>0.157578289964902</v>
       </c>
       <c r="E4">
-        <v>0.233803127639864</v>
+        <v>0.295338020696204</v>
       </c>
       <c r="F4">
-        <v>0.2469802770086673</v>
+        <v>0.654551187720628</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -525,13 +525,13 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>0.3591067585709324</v>
+        <v>0.3994996695239591</v>
       </c>
       <c r="E5">
-        <v>0.1574888678470207</v>
+        <v>0.2025832219328141</v>
       </c>
       <c r="F5">
-        <v>0.6918617053765977</v>
+        <v>0.5690743842060765</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -545,13 +545,13 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>0.05572409945445711</v>
+        <v>0.1383861108027632</v>
       </c>
       <c r="E6">
-        <v>-0.008480206686291162</v>
+        <v>0.06404129843165744</v>
       </c>
       <c r="F6">
-        <v>0.1356331964205954</v>
+        <v>-0.5344581318440536</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -565,13 +565,13 @@
         <v>53</v>
       </c>
       <c r="D7">
-        <v>0.1136099818786496</v>
+        <v>0.2093966029489203</v>
       </c>
       <c r="E7">
-        <v>0.04803534789871738</v>
+        <v>0.1635428229272171</v>
       </c>
       <c r="F7">
-        <v>0.3853164478929</v>
+        <v>0.4356604520789662</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -585,13 +585,13 @@
         <v>13</v>
       </c>
       <c r="D8">
-        <v>0.09512886889889825</v>
+        <v>0.1526217794298124</v>
       </c>
       <c r="E8">
-        <v>-0.01531605945459955</v>
+        <v>0.0736610121642237</v>
       </c>
       <c r="F8">
-        <v>0.3435238868067698</v>
+        <v>-0.6451156426589058</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -605,13 +605,13 @@
         <v>12</v>
       </c>
       <c r="D9">
-        <v>0.425103216807444</v>
+        <v>0.4733114154676658</v>
       </c>
       <c r="E9">
-        <v>0.2067111271188489</v>
+        <v>0.2538991046107211</v>
       </c>
       <c r="F9">
-        <v>0.471655641370462</v>
+        <v>0.5008880939628129</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -625,13 +625,13 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>0.433816700042115</v>
+        <v>0.4736425152158926</v>
       </c>
       <c r="E10">
-        <v>0.3081003314197301</v>
+        <v>0.3317436295162452</v>
       </c>
       <c r="F10">
-        <v>0.9335229931755409</v>
+        <v>0.8667917476135528</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -656,13 +656,13 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>0.1281261901216622</v>
+        <v>0.1920887936218409</v>
       </c>
       <c r="E12">
-        <v>0.07626625190548879</v>
+        <v>0.1026082095281635</v>
       </c>
       <c r="F12">
-        <v>0.2199333536313694</v>
+        <v>0.8434988412851585</v>
       </c>
     </row>
   </sheetData>
